--- a/admin/assets/uploads/add_staff.xlsx
+++ b/admin/assets/uploads/add_staff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Staff ID</t>
   </si>
@@ -55,40 +55,25 @@
     <t>Disability Type</t>
   </si>
   <si>
-    <t>Institution Code</t>
-  </si>
-  <si>
     <t>Academic year</t>
   </si>
   <si>
     <t>Employment Type</t>
   </si>
   <si>
-    <t>Staff Type</t>
-  </si>
-  <si>
-    <t>Staff Rank</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
-    <t>STF/2022/0074</t>
-  </si>
-  <si>
-    <t>Hannah</t>
-  </si>
-  <si>
-    <t>Johnson</t>
+    <t>STF/2022/0076</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Ransford</t>
+  </si>
+  <si>
+    <t>Niamah</t>
   </si>
   <si>
     <t>Ashiokai</t>
@@ -112,32 +97,24 @@
     <t>No</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>UPS/001/0004</t>
-    </r>
-  </si>
-  <si>
     <t>Full-time</t>
   </si>
   <si>
-    <t>Teaching</t>
-  </si>
-  <si>
-    <t>STF/2020/053</t>
-  </si>
-  <si>
-    <t>Moses</t>
+    <t>STF/2020/050</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Felicia</t>
   </si>
   <si>
     <t>Yankson</t>
   </si>
   <si>
+    <t>Ruth</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -159,13 +136,7 @@
     <t>Eye</t>
   </si>
   <si>
-    <t>UG0010</t>
-  </si>
-  <si>
     <t>Part-time</t>
-  </si>
-  <si>
-    <t>Non-Teaching</t>
   </si>
 </sst>
 </file>
@@ -179,7 +150,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,12 +301,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1109,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1128,16 +1093,11 @@
     <col min="11" max="11" width="10.7777777777778" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="23.7777777777778" customWidth="1"/>
-    <col min="16" max="16" width="24.1111111111111" customWidth="1"/>
-    <col min="17" max="17" width="14.5555555555556" customWidth="1"/>
-    <col min="18" max="18" width="17.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="11.4444444444444" customWidth="1"/>
-    <col min="21" max="21" width="11.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="23.7777777777778" customWidth="1"/>
+    <col min="15" max="15" width="24.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,145 +1146,100 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>23833</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="O2">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="2">
         <v>28551</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
         <v>40</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G4:G1048576">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
@@ -1337,11 +1252,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L3 L4:L1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P3 P4:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O3 O4:O1048576">
       <formula1>"Full-time,Part-time"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q3 Q4:Q1048576">
-      <formula1>"Teaching,Non-Teaching,Research"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/admin/assets/uploads/add_staff.xlsx
+++ b/admin/assets/uploads/add_staff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Staff ID</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>Designation</t>
+  </si>
+  <si>
+    <t>Staff Category Code</t>
+  </si>
+  <si>
+    <t>Institution Code</t>
+  </si>
+  <si>
+    <t>Rank Code</t>
+  </si>
+  <si>
+    <t>College Code</t>
+  </si>
+  <si>
+    <t>Faculty Code</t>
+  </si>
+  <si>
+    <t>Department Code</t>
   </si>
   <si>
     <t>STF/2022/0076</t>
@@ -150,10 +168,26 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -621,140 +655,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,172 +1112,197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.4537037037037" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1759259259259" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7222222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.8148148148148" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5462962962963" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.8888888888889" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5555555555556" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.4537037037037" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.1759259259259" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.7222222222222" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.8148148148148" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.5462962962963" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.8888888888889" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.7777777777778" style="2" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.7777777777778" customWidth="1"/>
     <col min="14" max="14" width="23.7777777777778" customWidth="1"/>
     <col min="15" max="15" width="24.1111111111111" customWidth="1"/>
+    <col min="16" max="16" width="11.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="19.5555555555556" customWidth="1"/>
+    <col min="18" max="18" width="15.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="12.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="12.7777777777778" customWidth="1"/>
+    <col min="22" max="22" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3">
         <v>23833</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3">
         <v>28551</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G4:G1048576">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
@@ -1252,6 +1315,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L3 L4:L1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"HEARING IMPAIRMENT,MOBILITY (PHYSICAL)IMPAIRMENT,SPEECH OR LANGUAGE IMPAIRMENT,VISUAL IMPAIRMENT,OTHER IMPAIRMENT"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O3 O4:O1048576">
       <formula1>"Full-time,Part-time"</formula1>
     </dataValidation>
